--- a/2020/September/All Details/27.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/27.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -57,12 +57,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="D29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LENOVO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mouse
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>LENOVO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Friday Natore To Bagha </t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="219">
   <si>
     <t>Date</t>
   </si>
@@ -697,9 +746,6 @@
     <t>N.K Tel</t>
   </si>
   <si>
-    <t>Masud DSR</t>
-  </si>
-  <si>
     <t>22.09.2020</t>
   </si>
   <si>
@@ -707,9 +753,6 @@
   </si>
   <si>
     <t>23.09.2020</t>
-  </si>
-  <si>
-    <t>Sohel Store</t>
   </si>
   <si>
     <t>24.09.2020</t>
@@ -721,7 +764,10 @@
     <t>Retailer Deposit</t>
   </si>
   <si>
-    <t>Date: 26.09.2020</t>
+    <t>27.09.2020</t>
+  </si>
+  <si>
+    <t>Date: 27.09.2020</t>
   </si>
 </sst>
 </file>
@@ -731,7 +777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1053,6 +1099,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="46">
@@ -3629,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4119,7 +4178,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="35"/>
       <c r="B28" s="40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28" s="39">
         <v>660000</v>
@@ -4138,7 +4197,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="35"/>
       <c r="B29" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="39">
         <v>900000</v>
@@ -4157,7 +4216,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="35"/>
       <c r="B30" s="40" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30" s="39">
         <v>600000</v>
@@ -4176,7 +4235,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="35"/>
       <c r="B31" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C31" s="54">
         <v>22970</v>
@@ -4189,19 +4248,25 @@
         <v>2631844</v>
       </c>
       <c r="F31" s="298" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="35"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1490000</v>
+      </c>
+      <c r="D32" s="54">
+        <v>1000000</v>
+      </c>
       <c r="E32" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="2"/>
@@ -4214,7 +4279,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="2"/>
@@ -4227,7 +4292,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="2"/>
@@ -4240,7 +4305,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="2"/>
@@ -4253,7 +4318,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="2"/>
@@ -4266,7 +4331,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="41">
         <f t="shared" si="0"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="2"/>
@@ -4279,7 +4344,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="41">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="2"/>
@@ -4292,7 +4357,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="2"/>
@@ -4305,7 +4370,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="2"/>
@@ -4318,7 +4383,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="2"/>
@@ -4331,7 +4396,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="2"/>
@@ -4344,7 +4409,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="2"/>
@@ -4357,7 +4422,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="2"/>
@@ -4370,7 +4435,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="2"/>
@@ -4383,7 +4448,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="2"/>
@@ -4396,7 +4461,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="2"/>
@@ -4409,7 +4474,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="2"/>
@@ -4421,7 +4486,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="2"/>
@@ -4433,7 +4498,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="2"/>
@@ -4445,7 +4510,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="2"/>
@@ -4457,7 +4522,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="2"/>
@@ -4469,7 +4534,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="2"/>
@@ -4481,7 +4546,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="2"/>
@@ -4493,7 +4558,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="2"/>
@@ -4504,7 +4569,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="2"/>
@@ -4515,7 +4580,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="2"/>
@@ -4526,7 +4591,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="2"/>
@@ -4537,7 +4602,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="2"/>
@@ -4548,7 +4613,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="2"/>
@@ -4559,7 +4624,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="2"/>
@@ -4570,7 +4635,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="2"/>
@@ -4581,7 +4646,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="2"/>
@@ -4592,7 +4657,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="2"/>
@@ -4603,7 +4668,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="2"/>
@@ -4614,7 +4679,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="2"/>
@@ -4625,7 +4690,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="2"/>
@@ -4636,7 +4701,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="2"/>
@@ -4647,7 +4712,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="2"/>
@@ -4658,7 +4723,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="41">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="2"/>
@@ -4669,7 +4734,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="2"/>
@@ -4680,7 +4745,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="2"/>
@@ -4691,7 +4756,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="2"/>
@@ -4702,7 +4767,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="2"/>
@@ -4713,7 +4778,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="2"/>
@@ -4724,7 +4789,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="2"/>
@@ -4735,7 +4800,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="2"/>
@@ -4746,7 +4811,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="2"/>
@@ -4757,7 +4822,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="2"/>
@@ -4768,7 +4833,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="2"/>
@@ -4779,7 +4844,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="2"/>
@@ -4790,7 +4855,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="41">
         <f t="shared" si="2"/>
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="2"/>
@@ -4799,15 +4864,15 @@
       <c r="B83" s="45"/>
       <c r="C83" s="41">
         <f>SUM(C5:C72)</f>
-        <v>18431844</v>
+        <v>19921844</v>
       </c>
       <c r="D83" s="41">
         <f>SUM(D5:D77)</f>
-        <v>15800000</v>
+        <v>16800000</v>
       </c>
       <c r="E83" s="67">
         <f>E71+C83-D83</f>
-        <v>5263688</v>
+        <v>6243688</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="2"/>
@@ -4835,8 +4900,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4864,7 +4929,7 @@
     </row>
     <row r="2" spans="1:29" ht="23.25">
       <c r="A2" s="304" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B2" s="305"/>
       <c r="C2" s="305"/>
@@ -4938,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="73">
-        <v>1617251.66</v>
+        <v>1101516.95</v>
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="56"/>
@@ -4970,14 +5035,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="72">
-        <v>403627.36500000011</v>
+        <v>416708.65500000014</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="73">
-        <v>2631844</v>
+        <v>3121844</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="56"/>
@@ -5010,14 +5075,14 @@
       </c>
       <c r="B6" s="72">
         <f>B4+B5</f>
-        <v>8903995.3650000002</v>
+        <v>8917076.6549999993</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="74">
-        <v>1514260</v>
+        <v>556320</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="56"/>
@@ -5054,7 +5119,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="75">
-        <v>2199622</v>
+        <v>2164622</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="56"/>
@@ -5086,14 +5151,14 @@
         <v>15</v>
       </c>
       <c r="B8" s="72">
-        <v>51388</v>
+        <v>55468</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="73">
-        <v>34720</v>
+        <v>39890</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="56"/>
@@ -5165,14 +5230,14 @@
       </c>
       <c r="B10" s="77">
         <f>B5-B8-B9</f>
-        <v>352239.36500000011</v>
+        <v>361240.65500000014</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="69" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="75">
-        <v>644670.70500000007</v>
+        <v>1667176.7049999991</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="50"/>
@@ -5277,7 +5342,7 @@
       </c>
       <c r="B13" s="76">
         <f>B6-B8-B11+B12-B9</f>
-        <v>8694607.3650000002</v>
+        <v>8703608.6549999993</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -5285,7 +5350,7 @@
       </c>
       <c r="E13" s="75">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
-        <v>8694607.3650000002</v>
+        <v>8703608.6549999993</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="85">
@@ -10543,7 +10608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -12206,7 +12271,7 @@
     </row>
     <row r="23" spans="1:61" ht="12.6" customHeight="1">
       <c r="A23" s="120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="121">
         <v>853860</v>
@@ -12282,7 +12347,7 @@
     </row>
     <row r="24" spans="1:61" ht="12.6" customHeight="1">
       <c r="A24" s="120" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="121">
         <v>603760</v>
@@ -12358,7 +12423,7 @@
     </row>
     <row r="25" spans="1:61" ht="12.6" customHeight="1">
       <c r="A25" s="120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B25" s="121">
         <v>854330</v>
@@ -12434,7 +12499,7 @@
     </row>
     <row r="26" spans="1:61" ht="12.6" customHeight="1">
       <c r="A26" s="120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="121">
         <v>688475</v>
@@ -12509,13 +12574,21 @@
       <c r="BI26" s="111"/>
     </row>
     <row r="27" spans="1:61" ht="12.6" customHeight="1">
-      <c r="A27" s="120"/>
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
+      <c r="A27" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="121">
+        <v>530130</v>
+      </c>
+      <c r="C27" s="121">
+        <v>561050</v>
+      </c>
+      <c r="D27" s="121">
+        <v>4080</v>
+      </c>
       <c r="E27" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>565130</v>
       </c>
       <c r="F27" s="130"/>
       <c r="G27" s="110"/>
@@ -12926,23 +12999,23 @@
       </c>
       <c r="B33" s="121">
         <f>SUM(B5:B32)</f>
-        <v>16516795</v>
+        <v>17046925</v>
       </c>
       <c r="C33" s="121">
         <f>SUM(C5:C32)</f>
-        <v>16322483</v>
+        <v>16883533</v>
       </c>
       <c r="D33" s="121">
         <f>SUM(D5:D32)</f>
-        <v>51028</v>
+        <v>55108</v>
       </c>
       <c r="E33" s="121">
         <f>SUM(E5:E32)</f>
-        <v>16373511</v>
+        <v>16938641</v>
       </c>
       <c r="F33" s="129">
         <f>B33-E33</f>
-        <v>143284</v>
+        <v>108284</v>
       </c>
       <c r="G33" s="143"/>
       <c r="H33" s="151" t="s">
@@ -13357,10 +13430,10 @@
         <v>62</v>
       </c>
       <c r="C39" s="121">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="D39" s="161" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E39" s="126"/>
       <c r="F39" s="122"/>
@@ -13431,7 +13504,7 @@
         <v>7300</v>
       </c>
       <c r="D40" s="161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40" s="126"/>
       <c r="F40" s="122"/>
@@ -13502,7 +13575,7 @@
         <v>9800</v>
       </c>
       <c r="D41" s="114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E41" s="165"/>
       <c r="F41" s="122"/>
@@ -14177,10 +14250,10 @@
       </c>
       <c r="B51" s="118"/>
       <c r="C51" s="190">
-        <v>64450</v>
+        <v>54450</v>
       </c>
       <c r="D51" s="194" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E51" s="126"/>
       <c r="F51" s="118"/>
@@ -14249,7 +14322,7 @@
         <v>187000</v>
       </c>
       <c r="D52" s="186" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E52" s="126"/>
       <c r="F52" s="150"/>
@@ -14315,7 +14388,7 @@
       </c>
       <c r="B53" s="118"/>
       <c r="C53" s="190">
-        <v>352440</v>
+        <v>324970</v>
       </c>
       <c r="D53" s="197" t="s">
         <v>217</v>
@@ -14387,7 +14460,7 @@
         <v>191125</v>
       </c>
       <c r="D54" s="186" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" s="126"/>
       <c r="F54" s="150"/>
@@ -14449,14 +14522,14 @@
     </row>
     <row r="55" spans="1:61" ht="12" customHeight="1">
       <c r="A55" s="195" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="191"/>
       <c r="C55" s="190">
         <v>5000</v>
       </c>
       <c r="D55" s="197" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E55" s="126"/>
       <c r="F55" s="118"/>
@@ -14517,16 +14590,10 @@
       <c r="BI55" s="111"/>
     </row>
     <row r="56" spans="1:61" ht="12" customHeight="1">
-      <c r="A56" s="193" t="s">
-        <v>215</v>
-      </c>
+      <c r="A56" s="193"/>
       <c r="B56" s="118"/>
-      <c r="C56" s="190">
-        <v>8000</v>
-      </c>
-      <c r="D56" s="194" t="s">
-        <v>214</v>
-      </c>
+      <c r="C56" s="190"/>
+      <c r="D56" s="194"/>
       <c r="E56" s="126"/>
       <c r="F56" s="118"/>
       <c r="G56" s="150"/>
@@ -15082,7 +15149,7 @@
         <v>48710</v>
       </c>
       <c r="D64" s="197" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E64" s="126"/>
       <c r="F64" s="206"/>
@@ -15326,7 +15393,7 @@
         <v>20105</v>
       </c>
       <c r="D67" s="197" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E67" s="126"/>
       <c r="F67" s="202"/>
@@ -16291,7 +16358,7 @@
       </c>
       <c r="B79" s="191"/>
       <c r="C79" s="190">
-        <v>15005</v>
+        <v>26715</v>
       </c>
       <c r="D79" s="191" t="s">
         <v>217</v>
@@ -16856,7 +16923,7 @@
         <v>10000</v>
       </c>
       <c r="D86" s="194" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" s="127"/>
       <c r="F86" s="209"/>
@@ -17300,16 +17367,10 @@
       <c r="BI91" s="111"/>
     </row>
     <row r="92" spans="1:61">
-      <c r="A92" s="193" t="s">
-        <v>211</v>
-      </c>
+      <c r="A92" s="193"/>
       <c r="B92" s="118"/>
-      <c r="C92" s="190">
-        <v>740</v>
-      </c>
-      <c r="D92" s="194" t="s">
-        <v>209</v>
-      </c>
+      <c r="C92" s="190"/>
+      <c r="D92" s="194"/>
       <c r="F92" s="209"/>
       <c r="G92" s="203" t="s">
         <v>85</v>
@@ -18702,7 +18763,7 @@
         <v>24000</v>
       </c>
       <c r="D110" s="191" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F110" s="213"/>
       <c r="G110" s="207" t="s">
@@ -18926,7 +18987,7 @@
       <c r="B113" s="312"/>
       <c r="C113" s="218">
         <f>SUM(C37:C112)</f>
-        <v>2199622</v>
+        <v>2164622</v>
       </c>
       <c r="D113" s="219"/>
       <c r="F113" s="209"/>
@@ -19077,7 +19138,7 @@
       <c r="B115" s="314"/>
       <c r="C115" s="223">
         <f>C113+L136</f>
-        <v>2199622</v>
+        <v>2164622</v>
       </c>
       <c r="D115" s="224"/>
       <c r="F115" s="202"/>
@@ -22693,7 +22754,7 @@
     </row>
     <row r="25" spans="1:25" s="22" customFormat="1">
       <c r="A25" s="256" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="264">
         <v>700</v>
@@ -22738,7 +22799,7 @@
     </row>
     <row r="26" spans="1:25" s="272" customFormat="1">
       <c r="A26" s="256" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="264">
         <v>1100</v>
@@ -22780,7 +22841,7 @@
     </row>
     <row r="27" spans="1:25" s="22" customFormat="1">
       <c r="A27" s="256" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="264">
         <v>1000</v>
@@ -22818,7 +22879,7 @@
     </row>
     <row r="28" spans="1:25" s="22" customFormat="1">
       <c r="A28" s="256" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" s="264">
         <v>1500</v>
@@ -22855,17 +22916,33 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:25" s="22" customFormat="1">
-      <c r="A29" s="256"/>
-      <c r="B29" s="264"/>
+      <c r="A29" s="256" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="264">
+        <v>600</v>
+      </c>
       <c r="C29" s="257"/>
-      <c r="D29" s="265"/>
-      <c r="E29" s="265"/>
+      <c r="D29" s="265">
+        <v>600</v>
+      </c>
+      <c r="E29" s="265">
+        <v>1600</v>
+      </c>
       <c r="F29" s="265"/>
-      <c r="G29" s="265"/>
-      <c r="H29" s="265"/>
+      <c r="G29" s="265">
+        <v>430</v>
+      </c>
+      <c r="H29" s="265">
+        <v>350</v>
+      </c>
       <c r="I29" s="265"/>
-      <c r="J29" s="265"/>
-      <c r="K29" s="265"/>
+      <c r="J29" s="265">
+        <v>20</v>
+      </c>
+      <c r="K29" s="265">
+        <v>480</v>
+      </c>
       <c r="L29" s="265"/>
       <c r="M29" s="265"/>
       <c r="N29" s="265"/>
@@ -22875,7 +22952,7 @@
       <c r="R29" s="267"/>
       <c r="S29" s="261">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4080</v>
       </c>
       <c r="T29" s="262"/>
       <c r="U29" s="7"/>
@@ -23094,7 +23171,7 @@
       </c>
       <c r="B38" s="282">
         <f>SUM(B7:B37)</f>
-        <v>19450</v>
+        <v>20050</v>
       </c>
       <c r="C38" s="283">
         <f t="shared" ref="C38:R38" si="1">SUM(C7:C37)</f>
@@ -23102,11 +23179,11 @@
       </c>
       <c r="D38" s="283">
         <f t="shared" si="1"/>
-        <v>3218</v>
+        <v>3818</v>
       </c>
       <c r="E38" s="283">
         <f t="shared" si="1"/>
-        <v>7405</v>
+        <v>9005</v>
       </c>
       <c r="F38" s="283">
         <f t="shared" si="1"/>
@@ -23115,7 +23192,7 @@
       <c r="G38" s="283"/>
       <c r="H38" s="283">
         <f t="shared" si="1"/>
-        <v>1840</v>
+        <v>2190</v>
       </c>
       <c r="I38" s="283">
         <f t="shared" si="1"/>
@@ -23123,11 +23200,11 @@
       </c>
       <c r="J38" s="283">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="K38" s="283">
         <f t="shared" si="1"/>
-        <v>10240</v>
+        <v>10720</v>
       </c>
       <c r="L38" s="283">
         <f t="shared" si="1"/>
@@ -23159,7 +23236,7 @@
       </c>
       <c r="S38" s="285">
         <f>SUM(S7:S37)</f>
-        <v>51388</v>
+        <v>55468</v>
       </c>
     </row>
     <row r="39" spans="1:20">
